--- a/biology/Histoire de la zoologie et de la botanique/Société_linnéenne_de_Bordeaux/Société_linnéenne_de_Bordeaux.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Société_linnéenne_de_Bordeaux/Société_linnéenne_de_Bordeaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_linn%C3%A9enne_de_Bordeaux</t>
+          <t>Société_linnéenne_de_Bordeaux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Société linnéenne de Bordeaux (appelée aussi Société linnéenne d'émulation de Bordeaux) est une société savante nommée en référence au naturaliste suédois Carl von Linné (1707-1778).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_linn%C3%A9enne_de_Bordeaux</t>
+          <t>Société_linnéenne_de_Bordeaux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fondée le 26 juin 1818 par J. F. Laterrade, professeur de botanique et de mathématique à Bordeaux, et vingt-trois de ses collègues ou élèves, à la suite d'une excursion botanique à Mérignac, elle est reconnue d'utilité publique en 1828.
-Si le nombre de membres fondateurs est fixé à 24, c'est en référence aux 24 classes que dénombre Linné dans sa systématique. Parmi eux figurent François-de-Paule Latapie, Toussaint-Yves Catros, Dargelas, l'architecte Pierre Clochar[1], etc.
+Si le nombre de membres fondateurs est fixé à 24, c'est en référence aux 24 classes que dénombre Linné dans sa systématique. Parmi eux figurent François-de-Paule Latapie, Toussaint-Yves Catros, Dargelas, l'architecte Pierre Clochar, etc.
 D'abord limitée à la botanique, elle s'ouvre rapidement aux autres disciplines et reste très active près de deux siècles plus tard, notamment en entomologie et en mycologie.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_linn%C3%A9enne_de_Bordeaux</t>
+          <t>Société_linnéenne_de_Bordeaux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bulletin d'Histoire Naturelle de la Société Linnéenne de Bordeaux (1826-1829)
 Actes de la Société Linnéenne de Bordeaux (1830-1970)
